--- a/tut05/output/0501EE30.xlsx
+++ b/tut05/output/0501EE30.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.040816326530612</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>7.590909090909091</v>
+        <v>7.59</v>
       </c>
       <c r="D6" t="n">
-        <v>7.217391304347826</v>
+        <v>7.22</v>
       </c>
       <c r="E6" t="n">
-        <v>8.847826086956522</v>
+        <v>8.85</v>
       </c>
       <c r="F6" t="n">
-        <v>8.846153846153847</v>
+        <v>8.85</v>
       </c>
       <c r="G6" t="n">
-        <v>7.275</v>
+        <v>7.28</v>
       </c>
       <c r="H6" t="n">
-        <v>8.697674418604651</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>8.631578947368421</v>
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.040816326530612</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>7.827956989247312</v>
+        <v>7.83</v>
       </c>
       <c r="D8" t="n">
-        <v>7.625899280575539</v>
+        <v>7.63</v>
       </c>
       <c r="E8" t="n">
-        <v>7.92972972972973</v>
+        <v>7.93</v>
       </c>
       <c r="F8" t="n">
-        <v>8.089285714285714</v>
+        <v>8.09</v>
       </c>
       <c r="G8" t="n">
-        <v>7.965909090909091</v>
+        <v>7.97</v>
       </c>
       <c r="H8" t="n">
-        <v>8.068403908794789</v>
+        <v>8.07</v>
       </c>
       <c r="I8" t="n">
-        <v>8.130434782608695</v>
+        <v>8.130000000000001</v>
       </c>
     </row>
   </sheetData>
